--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,72 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajonas\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34725" windowHeight="17730" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="34725" windowHeight="17730" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Összeadás" sheetId="1" r:id="rId1"/>
-    <sheet name="Kivonás" sheetId="2" r:id="rId2"/>
-    <sheet name="Szorzás" sheetId="3" r:id="rId3"/>
-    <sheet name="Osztás" sheetId="4" r:id="rId4"/>
+    <sheet name="Összeadás" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Kivonás" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Szorzás" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Osztás" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">Bement 1 </t>
-  </si>
-  <si>
-    <t>Bemenet 2</t>
-  </si>
-  <si>
-    <t>Bemenet 3</t>
-  </si>
-  <si>
-    <t>Üzenet</t>
-  </si>
-  <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -85,21 +50,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -365,47 +389,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bement 1 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Bemenet 2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bemenet 3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Üzenet</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="360" verticalDpi="360"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="B2:G3"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G3"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bement 1 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Bemenet 2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bemenet 3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Üzenet</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="3">
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -413,74 +518,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G3"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -397,7 +397,7 @@
   <dimension ref="B2:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -439,9 +439,14 @@
       <c r="D3" t="n">
         <v>30</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Hibás</t>
         </is>
       </c>
     </row>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -397,7 +397,7 @@
   <dimension ref="B2:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -441,12 +441,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Hibás</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -394,10 +394,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:G3"/>
+  <dimension ref="B2:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B3" sqref="B3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -442,6 +442,79 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hibás</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>90</v>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
+        <v>150</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hibás</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
+    <row r="34">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hibás</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Hibás</t>
         </is>
       </c>
     </row>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="34725" windowHeight="17730" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Összeadás" sheetId="1" state="visible" r:id="rId1"/>
@@ -396,11 +396,11 @@
   </sheetPr>
   <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2">
       <c r="B2" t="inlineStr">
@@ -437,11 +437,16 @@
         <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -457,12 +462,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hibás</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -474,11 +479,16 @@
         <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -494,12 +504,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hibás</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -530,13 +540,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:G3"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2">
       <c r="B2" t="inlineStr">
@@ -567,25 +577,79 @@
     </row>
     <row r="3">
       <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
         <v>20</v>
       </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hibás</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>70</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>90</v>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hibás</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -597,14 +661,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B3:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -615,14 +681,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B3:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel.xlsx
+++ b/excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Összeadás" sheetId="1" state="visible" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <dimension ref="B2:G36"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Hibás</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -483,12 +483,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Hibás</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -542,8 +542,8 @@
   </sheetPr>
   <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -590,6 +590,11 @@
           <t>Pass</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
@@ -625,6 +630,11 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>Pass</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -661,15 +671,126 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:B3"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F3" sqref="F3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="3"/>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bement 1 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Bemenet 2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bemenet 3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Üzenet</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>70</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2101</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hibás</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>90</v>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5400</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -681,15 +802,126 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:B3"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="3"/>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bement 1 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Bemenet 2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bemenet 3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Üzenet</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hibás</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>90</v>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -739,12 +739,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Hibás</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Hibás</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Hibás</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Hibás</t>
         </is>
       </c>
     </row>
@@ -912,12 +912,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Hibás</t>
         </is>
       </c>
     </row>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -739,12 +739,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hibás</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hibás</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hibás</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hibás</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -912,12 +912,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hibás</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
